--- a/Idées/Biblio/Annexe - liste de composants.xlsx
+++ b/Idées/Biblio/Annexe - liste de composants.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\etude\S5\Projet\Snoopy_polytech\Idées\Biblio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{31511AA7-C1C0-4613-B58D-74645FAC52DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{928C25B7-D209-4E6F-8EB6-F4097DA34692}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{3560E6F7-E16C-476D-B8B1-12EB76F63514}"/>
   </bookViews>
@@ -35,12 +35,73 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+  <si>
+    <t>Moteurs</t>
+  </si>
+  <si>
+    <t>Prix</t>
+  </si>
+  <si>
+    <t>Quantité</t>
+  </si>
+  <si>
+    <t>Prix total</t>
+  </si>
+  <si>
+    <t>Poids</t>
+  </si>
+  <si>
+    <t>Lien</t>
+  </si>
+  <si>
+    <t>Nom</t>
+  </si>
+  <si>
+    <t>Aoxing AX-4008Q</t>
+  </si>
+  <si>
+    <t>https://www.alibaba.com/product-detail/high-balance-RC-outrunner-Brushless-Motor_1600453635265.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>ESC</t>
+  </si>
+  <si>
+    <t>https://fr.aliexpress.com/item/4000292454786.html?_randl_currency=EUR&amp;_randl_shipto=FR&amp;src=google&amp;src=google&amp;albch=shopping&amp;acnt=248-630-5778&amp;slnk=&amp;plac=&amp;mtctp=&amp;albbt=Google_7_shopping&amp;gclsrc=aw.ds&amp;albagn=888888&amp;isSmbAutoCall=false&amp;needSmbHouyi=false&amp;src=google&amp;albch=shopping&amp;acnt=248-630-5778&amp;slnk=&amp;plac=&amp;mtctp=&amp;albbt=Google_7_shopping&amp;gclsrc=aw.ds&amp;albagn=888888&amp;ds_e_adid=609891816697&amp;ds_e_matchtype=&amp;ds_e_device=c&amp;ds_e_network=u&amp;ds_e_product_group_id=296730740870&amp;ds_e_product_id=fr4000292454786&amp;ds_e_product_merchant_id=106992425&amp;ds_e_product_country=FR&amp;ds_e_product_language=fr&amp;ds_e_product_channel=online&amp;ds_e_product_store_id=&amp;ds_url_v=2&amp;albcp=17734099841&amp;albag=138402376763&amp;isSmbAutoCall=false&amp;needSmbHouyi=false&amp;gclid=Cj0KCQjw-fmZBhDtARIsAH6H8qg0xGJT5TuMJTSXX2NO4JghrvjhYpg7kQS8e3w4SDpBwubPR3ropRwaAvvTEALw_wcB&amp;aff_fcid=856d506b29cd4b81823622b76e1e8899-1665077408708-05119-UneMJZVf&amp;aff_fsk=UneMJZVf&amp;aff_platform=aaf&amp;sk=UneMJZVf&amp;aff_trace_key=856d506b29cd4b81823622b76e1e8899-1665077408708-05119-UneMJZVf&amp;terminal_id=92cee12862e14454b4d4f189f0ccc9be&amp;afSmartRedirect=y</t>
+  </si>
+  <si>
+    <t>40A 2-4S Brushless ESC</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Color: 4xESC with wires</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="167" formatCode="_-* #,##0.00\ [$€-40C]_-;\-* #,##0.00\ [$€-40C]_-;_-* &quot;-&quot;??\ [$€-40C]_-;_-@_-"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -63,13 +124,27 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -382,12 +457,172 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A4C69B9-33FB-40B3-BC5F-941DD796637A}">
-  <dimension ref="A1"/>
+  <dimension ref="B2:I27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="2" width="11.42578125" style="1"/>
+    <col min="3" max="3" width="22.85546875" style="1" customWidth="1"/>
+    <col min="4" max="8" width="11.42578125" style="1"/>
+    <col min="9" max="9" width="34.42578125" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="11.42578125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="1">
+        <v>12</v>
+      </c>
+      <c r="E3" s="2">
+        <v>24.89</v>
+      </c>
+      <c r="F3" s="2">
+        <f>D3*E3</f>
+        <v>298.68</v>
+      </c>
+      <c r="G3" s="1">
+        <v>91.4</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="1">
+        <v>4</v>
+      </c>
+      <c r="E4" s="2">
+        <v>27.65</v>
+      </c>
+      <c r="F4" s="2">
+        <f>D4*E4</f>
+        <v>110.6</v>
+      </c>
+      <c r="G4" s="1">
+        <v>33.200000000000003</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="E7" s="2"/>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="E10" s="2"/>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="E11" s="2"/>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="E12" s="2"/>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="E13" s="2"/>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="E14" s="2"/>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="E15" s="2"/>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="E16" s="2"/>
+    </row>
+    <row r="17" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E17" s="2"/>
+    </row>
+    <row r="18" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E18" s="2"/>
+    </row>
+    <row r="19" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E19" s="2"/>
+    </row>
+    <row r="20" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E20" s="2"/>
+    </row>
+    <row r="21" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E21" s="2"/>
+    </row>
+    <row r="22" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E22" s="2"/>
+    </row>
+    <row r="23" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E23" s="2"/>
+    </row>
+    <row r="24" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E24" s="2"/>
+    </row>
+    <row r="25" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E25" s="2"/>
+    </row>
+    <row r="26" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E26" s="2"/>
+    </row>
+    <row r="27" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E27" s="2"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="H3" r:id="rId1" xr:uid="{04A81B08-ED2E-4B28-942B-ACF961888121}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>